--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Thbs1-Itga4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Thbs1-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H2">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I2">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J2">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.401300088170972</v>
+        <v>0.403827</v>
       </c>
       <c r="N2">
-        <v>0.401300088170972</v>
+        <v>1.211481</v>
       </c>
       <c r="O2">
-        <v>0.005341692140345045</v>
+        <v>0.005172149156755268</v>
       </c>
       <c r="P2">
-        <v>0.005341692140345045</v>
+        <v>0.005172149156755267</v>
       </c>
       <c r="Q2">
-        <v>12.0077075187952</v>
+        <v>12.6360025871</v>
       </c>
       <c r="R2">
-        <v>12.0077075187952</v>
+        <v>113.7240232839</v>
       </c>
       <c r="S2">
-        <v>0.0001269555788469816</v>
+        <v>0.000104828720031011</v>
       </c>
       <c r="T2">
-        <v>0.0001269555788469816</v>
+        <v>0.000104828720031011</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H3">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I3">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J3">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>23.4340792702359</v>
+        <v>0.137516</v>
       </c>
       <c r="N3">
-        <v>23.4340792702359</v>
+        <v>0.412548</v>
       </c>
       <c r="O3">
-        <v>0.3119302505627921</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="P3">
-        <v>0.3119302505627921</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="Q3">
-        <v>701.194886678843</v>
+        <v>4.302962733466667</v>
       </c>
       <c r="R3">
-        <v>701.194886678843</v>
+        <v>38.7266646012</v>
       </c>
       <c r="S3">
-        <v>0.007413621841097948</v>
+        <v>3.569752954553437E-05</v>
       </c>
       <c r="T3">
-        <v>0.007413621841097948</v>
+        <v>3.569752954553437E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H4">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I4">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J4">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>50.8685390322163</v>
+        <v>23.43656066666667</v>
       </c>
       <c r="N4">
-        <v>50.8685390322163</v>
+        <v>70.309682</v>
       </c>
       <c r="O4">
-        <v>0.6771094329375232</v>
+        <v>0.3001715771588915</v>
       </c>
       <c r="P4">
-        <v>0.6771094329375232</v>
+        <v>0.3001715771588914</v>
       </c>
       <c r="Q4">
-        <v>1522.089221039583</v>
+        <v>733.3448264150888</v>
       </c>
       <c r="R4">
-        <v>1522.089221039583</v>
+        <v>6600.103437735799</v>
       </c>
       <c r="S4">
-        <v>0.01609280687519778</v>
+        <v>0.006083854364903299</v>
       </c>
       <c r="T4">
-        <v>0.01609280687519778</v>
+        <v>0.006083854364903297</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H5">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I5">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J5">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.422104904506321</v>
+        <v>53.66901333333334</v>
       </c>
       <c r="N5">
-        <v>0.422104904506321</v>
+        <v>161.00704</v>
       </c>
       <c r="O5">
-        <v>0.005618624359339496</v>
+        <v>0.6873838105324489</v>
       </c>
       <c r="P5">
-        <v>0.005618624359339496</v>
+        <v>0.6873838105324488</v>
       </c>
       <c r="Q5">
-        <v>12.6302295587871</v>
+        <v>1679.337417575111</v>
       </c>
       <c r="R5">
-        <v>12.6302295587871</v>
+        <v>15114.036758176</v>
       </c>
       <c r="S5">
-        <v>0.0001335374052121282</v>
+        <v>0.01393184203399128</v>
       </c>
       <c r="T5">
-        <v>0.0001335374052121282</v>
+        <v>0.01393184203399128</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>168.327517975674</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H6">
-        <v>168.327517975674</v>
+        <v>93.8719</v>
       </c>
       <c r="I6">
-        <v>0.1337017862189803</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J6">
-        <v>0.1337017862189803</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.401300088170972</v>
+        <v>0.4302976666666667</v>
       </c>
       <c r="N6">
-        <v>0.401300088170972</v>
+        <v>1.290893</v>
       </c>
       <c r="O6">
-        <v>0.005341692140345045</v>
+        <v>0.005511181059720522</v>
       </c>
       <c r="P6">
-        <v>0.005341692140345045</v>
+        <v>0.005511181059720521</v>
       </c>
       <c r="Q6">
-        <v>67.54984780523885</v>
+        <v>13.46428651185556</v>
       </c>
       <c r="R6">
-        <v>67.54984780523885</v>
+        <v>121.1785786067</v>
       </c>
       <c r="S6">
-        <v>0.0007141937805960205</v>
+        <v>0.0001117001924809319</v>
       </c>
       <c r="T6">
-        <v>0.0007141937805960205</v>
+        <v>0.0001117001924809319</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H7">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I7">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J7">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.4340792702359</v>
+        <v>0.403827</v>
       </c>
       <c r="N7">
-        <v>23.4340792702359</v>
+        <v>1.211481</v>
       </c>
       <c r="O7">
-        <v>0.3119302505627921</v>
+        <v>0.005172149156755268</v>
       </c>
       <c r="P7">
-        <v>0.3119302505627921</v>
+        <v>0.005172149156755267</v>
       </c>
       <c r="Q7">
-        <v>3944.600399604003</v>
+        <v>68.744378416923</v>
       </c>
       <c r="R7">
-        <v>3944.600399604003</v>
+        <v>618.6994057523069</v>
       </c>
       <c r="S7">
-        <v>0.04170563167597939</v>
+        <v>0.0005703057710775116</v>
       </c>
       <c r="T7">
-        <v>0.04170563167597939</v>
+        <v>0.0005703057710775114</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H8">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I8">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J8">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>50.8685390322163</v>
+        <v>0.137516</v>
       </c>
       <c r="N8">
-        <v>50.8685390322163</v>
+        <v>0.412548</v>
       </c>
       <c r="O8">
-        <v>0.6771094329375232</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="P8">
-        <v>0.6771094329375232</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="Q8">
-        <v>8562.574918341663</v>
+        <v>23.409657953484</v>
       </c>
       <c r="R8">
-        <v>8562.574918341663</v>
+        <v>210.686921581356</v>
       </c>
       <c r="S8">
-        <v>0.0905307406494677</v>
+        <v>0.0001942073422913651</v>
       </c>
       <c r="T8">
-        <v>0.0905307406494677</v>
+        <v>0.000194207342291365</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H9">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I9">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J9">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.422104904506321</v>
+        <v>23.43656066666667</v>
       </c>
       <c r="N9">
-        <v>0.422104904506321</v>
+        <v>70.309682</v>
       </c>
       <c r="O9">
-        <v>0.005618624359339496</v>
+        <v>0.3001715771588915</v>
       </c>
       <c r="P9">
-        <v>0.005618624359339496</v>
+        <v>0.3001715771588914</v>
       </c>
       <c r="Q9">
-        <v>71.0518709009079</v>
+        <v>3989.658431111606</v>
       </c>
       <c r="R9">
-        <v>71.0518709009079</v>
+        <v>35906.92588000445</v>
       </c>
       <c r="S9">
-        <v>0.0007512201129371643</v>
+        <v>0.03309834607990108</v>
       </c>
       <c r="T9">
-        <v>0.0007512201129371643</v>
+        <v>0.03309834607990107</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>591.1917750767039</v>
+        <v>170.232249</v>
       </c>
       <c r="H10">
-        <v>591.1917750767039</v>
+        <v>510.696747</v>
       </c>
       <c r="I10">
-        <v>0.4695809531103998</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J10">
-        <v>0.4695809531103998</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.401300088170972</v>
+        <v>53.66901333333334</v>
       </c>
       <c r="N10">
-        <v>0.401300088170972</v>
+        <v>161.00704</v>
       </c>
       <c r="O10">
-        <v>0.005341692140345045</v>
+        <v>0.6873838105324489</v>
       </c>
       <c r="P10">
-        <v>0.005341692140345045</v>
+        <v>0.6873838105324488</v>
       </c>
       <c r="Q10">
-        <v>237.2453114642348</v>
+        <v>9136.196841344321</v>
       </c>
       <c r="R10">
-        <v>237.2453114642348</v>
+        <v>82225.77157209888</v>
       </c>
       <c r="S10">
-        <v>0.002508356886485557</v>
+        <v>0.07579420898561988</v>
       </c>
       <c r="T10">
-        <v>0.002508356886485557</v>
+        <v>0.07579420898561987</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>591.1917750767039</v>
+        <v>170.232249</v>
       </c>
       <c r="H11">
-        <v>591.1917750767039</v>
+        <v>510.696747</v>
       </c>
       <c r="I11">
-        <v>0.4695809531103998</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J11">
-        <v>0.4695809531103998</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.4340792702359</v>
+        <v>0.4302976666666667</v>
       </c>
       <c r="N11">
-        <v>23.4340792702359</v>
+        <v>1.290893</v>
       </c>
       <c r="O11">
-        <v>0.3119302505627921</v>
+        <v>0.005511181059720522</v>
       </c>
       <c r="P11">
-        <v>0.3119302505627921</v>
+        <v>0.005511181059720521</v>
       </c>
       <c r="Q11">
-        <v>13854.03492105895</v>
+        <v>73.25053953611901</v>
       </c>
       <c r="R11">
-        <v>13854.03492105895</v>
+        <v>659.254855825071</v>
       </c>
       <c r="S11">
-        <v>0.1464765043632417</v>
+        <v>0.0006076890415479584</v>
       </c>
       <c r="T11">
-        <v>0.1464765043632417</v>
+        <v>0.0006076890415479582</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H12">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I12">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J12">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>50.8685390322163</v>
+        <v>0.403827</v>
       </c>
       <c r="N12">
-        <v>50.8685390322163</v>
+        <v>1.211481</v>
       </c>
       <c r="O12">
-        <v>0.6771094329375232</v>
+        <v>0.005172149156755268</v>
       </c>
       <c r="P12">
-        <v>0.6771094329375232</v>
+        <v>0.005172149156755267</v>
       </c>
       <c r="Q12">
-        <v>30073.06188601455</v>
+        <v>243.902022776815</v>
       </c>
       <c r="R12">
-        <v>30073.06188601455</v>
+        <v>2195.118204991335</v>
       </c>
       <c r="S12">
-        <v>0.3179576928788445</v>
+        <v>0.002023419723478857</v>
       </c>
       <c r="T12">
-        <v>0.3179576928788445</v>
+        <v>0.002023419723478857</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H13">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I13">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J13">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.422104904506321</v>
+        <v>0.137516</v>
       </c>
       <c r="N13">
-        <v>0.422104904506321</v>
+        <v>0.412548</v>
       </c>
       <c r="O13">
-        <v>0.005618624359339496</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="P13">
-        <v>0.005618624359339496</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="Q13">
-        <v>249.5449477636745</v>
+        <v>83.05643397835333</v>
       </c>
       <c r="R13">
-        <v>249.5449477636745</v>
+        <v>747.50790580518</v>
       </c>
       <c r="S13">
-        <v>0.00263839898182795</v>
+        <v>0.0006890390852863195</v>
       </c>
       <c r="T13">
-        <v>0.00263839898182795</v>
+        <v>0.0006890390852863195</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>436.236476144538</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H14">
-        <v>436.236476144538</v>
+        <v>1811.929535</v>
       </c>
       <c r="I14">
-        <v>0.3465006599980123</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J14">
-        <v>0.3465006599980123</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.401300088170972</v>
+        <v>23.43656066666667</v>
       </c>
       <c r="N14">
-        <v>0.401300088170972</v>
+        <v>70.309682</v>
       </c>
       <c r="O14">
-        <v>0.005341692140345045</v>
+        <v>0.3001715771588915</v>
       </c>
       <c r="P14">
-        <v>0.005341692140345045</v>
+        <v>0.3001715771588914</v>
       </c>
       <c r="Q14">
-        <v>175.0617363401972</v>
+        <v>14155.13215691754</v>
       </c>
       <c r="R14">
-        <v>175.0617363401972</v>
+        <v>127396.1894122579</v>
       </c>
       <c r="S14">
-        <v>0.001850899852135753</v>
+        <v>0.1174314721488215</v>
       </c>
       <c r="T14">
-        <v>0.001850899852135753</v>
+        <v>0.1174314721488215</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>436.236476144538</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H15">
-        <v>436.236476144538</v>
+        <v>1811.929535</v>
       </c>
       <c r="I15">
-        <v>0.3465006599980123</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J15">
-        <v>0.3465006599980123</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>23.4340792702359</v>
+        <v>53.66901333333334</v>
       </c>
       <c r="N15">
-        <v>23.4340792702359</v>
+        <v>161.00704</v>
       </c>
       <c r="O15">
-        <v>0.3119302505627921</v>
+        <v>0.6873838105324489</v>
       </c>
       <c r="P15">
-        <v>0.3119302505627921</v>
+        <v>0.6873838105324488</v>
       </c>
       <c r="Q15">
-        <v>10222.80016253948</v>
+        <v>32414.82345765849</v>
       </c>
       <c r="R15">
-        <v>10222.80016253948</v>
+        <v>291733.4111189264</v>
       </c>
       <c r="S15">
-        <v>0.1080840376933528</v>
+        <v>0.2689145107145299</v>
       </c>
       <c r="T15">
-        <v>0.1080840376933528</v>
+        <v>0.2689145107145298</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>436.236476144538</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H16">
-        <v>436.236476144538</v>
+        <v>1811.929535</v>
       </c>
       <c r="I16">
-        <v>0.3465006599980123</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J16">
-        <v>0.3465006599980123</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>50.8685390322163</v>
+        <v>0.4302976666666667</v>
       </c>
       <c r="N16">
-        <v>50.8685390322163</v>
+        <v>1.290893</v>
       </c>
       <c r="O16">
-        <v>0.6771094329375232</v>
+        <v>0.005511181059720522</v>
       </c>
       <c r="P16">
-        <v>0.6771094329375232</v>
+        <v>0.005511181059720521</v>
       </c>
       <c r="Q16">
-        <v>22190.71221403493</v>
+        <v>259.8896836916394</v>
       </c>
       <c r="R16">
-        <v>22190.71221403493</v>
+        <v>2339.007153224755</v>
       </c>
       <c r="S16">
-        <v>0.2346188654037316</v>
+        <v>0.002156053918386498</v>
       </c>
       <c r="T16">
-        <v>0.2346188654037316</v>
+        <v>0.002156053918386497</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H17">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I17">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J17">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.422104904506321</v>
+        <v>0.403827</v>
       </c>
       <c r="N17">
-        <v>0.422104904506321</v>
+        <v>1.211481</v>
       </c>
       <c r="O17">
-        <v>0.005618624359339496</v>
+        <v>0.005172149156755268</v>
       </c>
       <c r="P17">
-        <v>0.005618624359339496</v>
+        <v>0.005172149156755267</v>
       </c>
       <c r="Q17">
-        <v>184.1375561051642</v>
+        <v>280.614070359642</v>
       </c>
       <c r="R17">
-        <v>184.1375561051642</v>
+        <v>2525.526633236778</v>
       </c>
       <c r="S17">
-        <v>0.001946857048792044</v>
+        <v>0.002327984156043489</v>
       </c>
       <c r="T17">
-        <v>0.001946857048792044</v>
+        <v>0.002327984156043488</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>33.299546240622</v>
+        <v>694.886846</v>
       </c>
       <c r="H18">
-        <v>33.299546240622</v>
+        <v>2084.660538</v>
       </c>
       <c r="I18">
-        <v>0.02644967897225281</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J18">
-        <v>0.02644967897225281</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.401300088170972</v>
+        <v>0.137516</v>
       </c>
       <c r="N18">
-        <v>0.401300088170972</v>
+        <v>0.412548</v>
       </c>
       <c r="O18">
-        <v>0.005341692140345045</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="P18">
-        <v>0.005341692140345045</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="Q18">
-        <v>13.36311084241497</v>
+        <v>95.558059514536</v>
       </c>
       <c r="R18">
-        <v>13.36311084241497</v>
+        <v>860.0225356308241</v>
       </c>
       <c r="S18">
-        <v>0.0001412860422807324</v>
+        <v>0.0007927530085964446</v>
       </c>
       <c r="T18">
-        <v>0.0001412860422807324</v>
+        <v>0.0007927530085964446</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,57 +1588,57 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>33.299546240622</v>
+        <v>694.886846</v>
       </c>
       <c r="H19">
-        <v>33.299546240622</v>
+        <v>2084.660538</v>
       </c>
       <c r="I19">
-        <v>0.02644967897225281</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J19">
-        <v>0.02644967897225281</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>23.4340792702359</v>
+        <v>23.43656066666667</v>
       </c>
       <c r="N19">
-        <v>23.4340792702359</v>
+        <v>70.309682</v>
       </c>
       <c r="O19">
-        <v>0.3119302505627921</v>
+        <v>0.3001715771588915</v>
       </c>
       <c r="P19">
-        <v>0.3119302505627921</v>
+        <v>0.3001715771588914</v>
       </c>
       <c r="Q19">
-        <v>780.3442062656219</v>
+        <v>16285.75772274766</v>
       </c>
       <c r="R19">
-        <v>780.3442062656219</v>
+        <v>146571.8195047289</v>
       </c>
       <c r="S19">
-        <v>0.008250454989120231</v>
+        <v>0.1351072164668336</v>
       </c>
       <c r="T19">
-        <v>0.008250454989120231</v>
+        <v>0.1351072164668336</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>33.299546240622</v>
+        <v>694.886846</v>
       </c>
       <c r="H20">
-        <v>33.299546240622</v>
+        <v>2084.660538</v>
       </c>
       <c r="I20">
-        <v>0.02644967897225281</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J20">
-        <v>0.02644967897225281</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>50.8685390322163</v>
+        <v>53.66901333333334</v>
       </c>
       <c r="N20">
-        <v>50.8685390322163</v>
+        <v>161.00704</v>
       </c>
       <c r="O20">
-        <v>0.6771094329375232</v>
+        <v>0.6873838105324489</v>
       </c>
       <c r="P20">
-        <v>0.6771094329375232</v>
+        <v>0.6873838105324488</v>
       </c>
       <c r="Q20">
-        <v>1693.899267696172</v>
+        <v>37293.89140313195</v>
       </c>
       <c r="R20">
-        <v>1693.899267696172</v>
+        <v>335645.0226281876</v>
       </c>
       <c r="S20">
-        <v>0.01790932713028163</v>
+        <v>0.3093914292766129</v>
       </c>
       <c r="T20">
-        <v>0.01790932713028163</v>
+        <v>0.3093914292766129</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>33.299546240622</v>
+        <v>694.886846</v>
       </c>
       <c r="H21">
-        <v>33.299546240622</v>
+        <v>2084.660538</v>
       </c>
       <c r="I21">
-        <v>0.02644967897225281</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J21">
-        <v>0.02644967897225281</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.422104904506321</v>
+        <v>0.4302976666666667</v>
       </c>
       <c r="N21">
-        <v>0.422104904506321</v>
+        <v>1.290893</v>
       </c>
       <c r="O21">
-        <v>0.005618624359339496</v>
+        <v>0.005511181059720522</v>
       </c>
       <c r="P21">
-        <v>0.005618624359339496</v>
+        <v>0.005511181059720521</v>
       </c>
       <c r="Q21">
-        <v>14.05590178600157</v>
+        <v>299.0081884311593</v>
       </c>
       <c r="R21">
-        <v>14.05590178600157</v>
+        <v>2691.073695880434</v>
       </c>
       <c r="S21">
-        <v>0.0001486108105702093</v>
+        <v>0.002480582403807776</v>
       </c>
       <c r="T21">
-        <v>0.0001486108105702093</v>
+        <v>0.002480582403807775</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>43.46379233333334</v>
+      </c>
+      <c r="H22">
+        <v>130.391377</v>
+      </c>
+      <c r="I22">
+        <v>0.02815285903621308</v>
+      </c>
+      <c r="J22">
+        <v>0.02815285903621308</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.403827</v>
+      </c>
+      <c r="N22">
+        <v>1.211481</v>
+      </c>
+      <c r="O22">
+        <v>0.005172149156755268</v>
+      </c>
+      <c r="P22">
+        <v>0.005172149156755267</v>
+      </c>
+      <c r="Q22">
+        <v>17.551852866593</v>
+      </c>
+      <c r="R22">
+        <v>157.966675799337</v>
+      </c>
+      <c r="S22">
+        <v>0.0001456107861243994</v>
+      </c>
+      <c r="T22">
+        <v>0.0001456107861243994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>43.46379233333334</v>
+      </c>
+      <c r="H23">
+        <v>130.391377</v>
+      </c>
+      <c r="I23">
+        <v>0.02815285903621308</v>
+      </c>
+      <c r="J23">
+        <v>0.02815285903621308</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.137516</v>
+      </c>
+      <c r="N23">
+        <v>0.412548</v>
+      </c>
+      <c r="O23">
+        <v>0.001761282092183924</v>
+      </c>
+      <c r="P23">
+        <v>0.001761282092183924</v>
+      </c>
+      <c r="Q23">
+        <v>5.976966866510668</v>
+      </c>
+      <c r="R23">
+        <v>53.79270179859601</v>
+      </c>
+      <c r="S23">
+        <v>4.958512646426046E-05</v>
+      </c>
+      <c r="T23">
+        <v>4.958512646426046E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>43.46379233333334</v>
+      </c>
+      <c r="H24">
+        <v>130.391377</v>
+      </c>
+      <c r="I24">
+        <v>0.02815285903621308</v>
+      </c>
+      <c r="J24">
+        <v>0.02815285903621308</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>23.43656066666667</v>
+      </c>
+      <c r="N24">
+        <v>70.309682</v>
+      </c>
+      <c r="O24">
+        <v>0.3001715771588915</v>
+      </c>
+      <c r="P24">
+        <v>0.3001715771588914</v>
+      </c>
+      <c r="Q24">
+        <v>1018.641805823568</v>
+      </c>
+      <c r="R24">
+        <v>9167.776252412114</v>
+      </c>
+      <c r="S24">
+        <v>0.008450688098432031</v>
+      </c>
+      <c r="T24">
+        <v>0.008450688098432028</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>43.46379233333334</v>
+      </c>
+      <c r="H25">
+        <v>130.391377</v>
+      </c>
+      <c r="I25">
+        <v>0.02815285903621308</v>
+      </c>
+      <c r="J25">
+        <v>0.02815285903621308</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>53.66901333333334</v>
+      </c>
+      <c r="N25">
+        <v>161.00704</v>
+      </c>
+      <c r="O25">
+        <v>0.6873838105324489</v>
+      </c>
+      <c r="P25">
+        <v>0.6873838105324488</v>
+      </c>
+      <c r="Q25">
+        <v>2332.658850254898</v>
+      </c>
+      <c r="R25">
+        <v>20993.92965229408</v>
+      </c>
+      <c r="S25">
+        <v>0.01935181952169504</v>
+      </c>
+      <c r="T25">
+        <v>0.01935181952169503</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>43.46379233333334</v>
+      </c>
+      <c r="H26">
+        <v>130.391377</v>
+      </c>
+      <c r="I26">
+        <v>0.02815285903621308</v>
+      </c>
+      <c r="J26">
+        <v>0.02815285903621308</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.4302976666666667</v>
+      </c>
+      <c r="N26">
+        <v>1.290893</v>
+      </c>
+      <c r="O26">
+        <v>0.005511181059720522</v>
+      </c>
+      <c r="P26">
+        <v>0.005511181059720521</v>
+      </c>
+      <c r="Q26">
+        <v>18.70236842551789</v>
+      </c>
+      <c r="R26">
+        <v>168.321315829661</v>
+      </c>
+      <c r="S26">
+        <v>0.0001551555034973593</v>
+      </c>
+      <c r="T26">
+        <v>0.0001551555034973593</v>
       </c>
     </row>
   </sheetData>
